--- a/db/AiCity-71-劉妹鍋燒意麵.xlsx
+++ b/db/AiCity-71-劉妹鍋燒意麵.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB0E7E6-476F-B240-8B8E-681E9E580034}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC45C86B-6B49-C546-8E55-CF2CE88F36AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22900" yWindow="500" windowWidth="19960" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10640" yWindow="500" windowWidth="32220" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -763,10 +763,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>輕疏菇菇鍋燒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>海鮮鍋燒</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -775,10 +771,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>麻辣鍋燒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>排骨鍋燒</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -791,30 +783,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>藥膳菇菇鍋燒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>豪華海鮮鍋燒</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>咖哩飯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海產飯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>魯肉飯-大</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>魯肉飯-小</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>加料</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -908,6 +880,106 @@
   </si>
   <si>
     <t>其他湯底</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>輕疏菇菇鍋燒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>（鍋邊素, 全素）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>藥膳菇菇鍋燒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> （鍋邊素, 全素）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>麻辣鍋燒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> (大辣, 中辣, 小辣）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>咖哩飯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> （暫不提供）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海產粥 （暫不提供）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魯肉飯-大 （暫不提供）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魯肉飯-小 （暫不提供）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -984,7 +1056,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -999,6 +1071,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1306,10 +1381,10 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="I18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E52" sqref="E52"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -1485,7 +1560,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>34</v>
@@ -1497,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>6</v>
@@ -1505,7 +1580,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>35</v>
@@ -1517,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>6</v>
@@ -1525,10 +1600,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4">
-        <v>110</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>36</v>
+        <v>111</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="C11" s="7">
         <v>85</v>
@@ -1537,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>6</v>
@@ -1545,10 +1620,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="7">
         <v>85</v>
@@ -1557,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>6</v>
@@ -1565,10 +1640,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="7">
         <v>85</v>
@@ -1577,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>6</v>
@@ -1585,10 +1660,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="7">
         <v>85</v>
@@ -1597,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>6</v>
@@ -1605,10 +1680,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4">
-        <v>114</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>40</v>
+        <v>108</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="C15" s="7">
         <v>85</v>
@@ -1617,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>6</v>
@@ -1627,8 +1702,8 @@
       <c r="A16" s="4">
         <v>115</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>41</v>
+      <c r="B16" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="C16" s="7">
         <v>90</v>
@@ -1648,7 +1723,7 @@
         <v>116</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>160</v>
@@ -1667,8 +1742,8 @@
       <c r="A18" s="4">
         <v>117</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>43</v>
+      <c r="B18" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="C18" s="7">
         <v>85</v>
@@ -1687,8 +1762,8 @@
       <c r="A19" s="4">
         <v>118</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>44</v>
+      <c r="B19" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="C19" s="7">
         <v>80</v>
@@ -1708,7 +1783,7 @@
         <v>119</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C20" s="7">
         <v>40</v>
@@ -1728,7 +1803,7 @@
         <v>120</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C21" s="7">
         <v>30</v>
@@ -1748,7 +1823,7 @@
         <v>121</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C22" s="7">
         <v>10</v>
@@ -1757,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1765,7 +1840,7 @@
         <v>122</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C23" s="7">
         <v>10</v>
@@ -1774,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1782,7 +1857,7 @@
         <v>123</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C24" s="7">
         <v>10</v>
@@ -1791,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1799,7 +1874,7 @@
         <v>124</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C25" s="7">
         <v>10</v>
@@ -1808,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1816,7 +1891,7 @@
         <v>125</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C26" s="7">
         <v>10</v>
@@ -1825,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1833,7 +1908,7 @@
         <v>126</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C27" s="7">
         <v>10</v>
@@ -1842,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1850,7 +1925,7 @@
         <v>127</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C28" s="7">
         <v>10</v>
@@ -1859,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1867,7 +1942,7 @@
         <v>128</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C29" s="1">
         <v>15</v>
@@ -1876,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1884,7 +1959,7 @@
         <v>129</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C30" s="1">
         <v>15</v>
@@ -1893,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1901,7 +1976,7 @@
         <v>130</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C31" s="1">
         <v>15</v>
@@ -1910,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1918,7 +1993,7 @@
         <v>131</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C32" s="1">
         <v>20</v>
@@ -1927,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1935,7 +2010,7 @@
         <v>132</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C33" s="1">
         <v>20</v>
@@ -1944,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1952,7 +2027,7 @@
         <v>133</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C34" s="1">
         <v>20</v>
@@ -1961,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1969,7 +2044,7 @@
         <v>134</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C35" s="1">
         <v>25</v>
@@ -1978,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1986,7 +2061,7 @@
         <v>135</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C36" s="1">
         <v>35</v>
@@ -1995,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2003,7 +2078,7 @@
         <v>136</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C37" s="7">
         <v>10</v>
@@ -2012,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2020,7 +2095,7 @@
         <v>137</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C38" s="1">
         <v>10</v>
@@ -2029,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2037,7 +2112,7 @@
         <v>138</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C39" s="1">
         <v>20</v>
@@ -2046,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2054,7 +2129,7 @@
         <v>139</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C40" s="1">
         <v>20</v>
@@ -2063,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2071,7 +2146,7 @@
         <v>140</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C41" s="1">
         <v>20</v>
@@ -2080,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2088,7 +2163,7 @@
         <v>141</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C42" s="1">
         <v>20</v>
@@ -2097,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2105,7 +2180,7 @@
         <v>142</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C43" s="1">
         <v>30</v>
@@ -2114,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/db/AiCity-71-劉妹鍋燒意麵.xlsx
+++ b/db/AiCity-71-劉妹鍋燒意麵.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC45C86B-6B49-C546-8E55-CF2CE88F36AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822E5B40-C49D-524A-A48E-709C13938761}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10640" yWindow="500" windowWidth="32220" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="75">
   <si>
     <t>id</t>
   </si>
@@ -890,7 +890,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>輕疏菇菇鍋燒</t>
+      <t>咖哩飯</t>
     </r>
     <r>
       <rPr>
@@ -900,8 +900,28 @@
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t>（鍋邊素, 全素）</t>
-    </r>
+      <t xml:space="preserve"> （暫不提供）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海產粥 （暫不提供）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魯肉飯-大 （暫不提供）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魯肉飯-小 （暫不提供）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>輕疏菇菇鍋燒-鍋邊素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>輕疏菇菇鍋燒-全素</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -909,30 +929,112 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>藥膳菇菇鍋燒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>藥膳菇菇鍋燒</t>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>-</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鍋邊素</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>藥膳菇菇鍋燒-全素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>麻辣鍋燒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve"> （鍋邊素, 全素）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve"> -</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>大辣</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>麻辣鍋燒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>中辣</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>麻辣鍋燒</t>
     </r>
@@ -944,42 +1046,18 @@
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve"> (大辣, 中辣, 小辣）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve"> -</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>咖哩飯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve"> （暫不提供）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海產粥 （暫不提供）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>魯肉飯-大 （暫不提供）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>魯肉飯-小 （暫不提供）</t>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>小辣</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1378,13 +1456,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -1602,8 +1680,8 @@
       <c r="A11" s="4">
         <v>111</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>66</v>
+      <c r="B11" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="C11" s="7">
         <v>85</v>
@@ -1620,10 +1698,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="C12" s="7">
         <v>85</v>
@@ -1632,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>6</v>
@@ -1640,10 +1718,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="C13" s="7">
         <v>85</v>
@@ -1652,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>6</v>
@@ -1660,10 +1738,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="7">
         <v>85</v>
@@ -1672,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>6</v>
@@ -1680,10 +1758,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4">
-        <v>108</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>64</v>
+        <v>113</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C15" s="7">
         <v>85</v>
@@ -1692,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>6</v>
@@ -1700,19 +1778,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4">
-        <v>115</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>65</v>
+        <v>114</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C16" s="7">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>6</v>
@@ -1720,19 +1798,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4">
-        <v>116</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>108</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="C17" s="7">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>6</v>
@@ -1740,10 +1818,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4">
-        <v>117</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>67</v>
+        <v>108</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="C18" s="7">
         <v>85</v>
@@ -1752,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>6</v>
@@ -1760,19 +1838,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="4">
-        <v>118</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>68</v>
+        <v>115</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="C19" s="7">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>6</v>
@@ -1780,19 +1858,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="4">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C20" s="7">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>6</v>
@@ -1800,19 +1878,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="4">
-        <v>120</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>70</v>
+        <v>116</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C21" s="7">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>6</v>
@@ -1820,78 +1898,90 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="4">
-        <v>121</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>56</v>
+        <v>117</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="C22" s="7">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
       </c>
+      <c r="E22" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F22" s="3" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="4">
-        <v>122</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>41</v>
+        <v>118</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="C23" s="7">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
       </c>
+      <c r="E23" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F23" s="3" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="4">
-        <v>123</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>42</v>
+        <v>119</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C24" s="7">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
+      <c r="E24" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="F24" s="3" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="4">
-        <v>124</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>43</v>
+        <v>120</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="C25" s="7">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
       </c>
+      <c r="E25" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="F25" s="3" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="4">
-        <v>125</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>44</v>
+        <v>121</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="C26" s="7">
         <v>10</v>
@@ -1905,10 +1995,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="4">
-        <v>126</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>45</v>
+        <v>122</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="C27" s="7">
         <v>10</v>
@@ -1922,10 +2012,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="4">
-        <v>127</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>46</v>
+        <v>123</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="C28" s="7">
         <v>10</v>
@@ -1939,13 +2029,13 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="4">
-        <v>128</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="1">
-        <v>15</v>
+        <v>124</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="7">
+        <v>10</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -1956,13 +2046,13 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="4">
-        <v>129</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="1">
-        <v>15</v>
+        <v>125</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="7">
+        <v>10</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -1973,13 +2063,13 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="4">
-        <v>130</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="1">
-        <v>15</v>
+        <v>126</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="7">
+        <v>10</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -1990,13 +2080,13 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="4">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="1">
-        <v>20</v>
+        <v>46</v>
+      </c>
+      <c r="C32" s="7">
+        <v>10</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
@@ -2007,13 +2097,13 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="4">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C33" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
@@ -2024,13 +2114,13 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="4">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C34" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
@@ -2041,13 +2131,13 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="4">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C35" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
@@ -2058,13 +2148,13 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="4">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C36" s="1">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
@@ -2075,13 +2165,13 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="4">
-        <v>136</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="7">
-        <v>10</v>
+        <v>132</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="1">
+        <v>20</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -2092,81 +2182,81 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="4">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C38" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>57</v>
+      <c r="F38" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="4">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C39" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>57</v>
+      <c r="F39" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="4">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C40" s="1">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>57</v>
+      <c r="F40" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="4">
-        <v>140</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="1">
-        <v>20</v>
+        <v>136</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="7">
+        <v>10</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>57</v>
+      <c r="F41" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="4">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C42" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
@@ -2177,18 +2267,86 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="4">
+        <v>138</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="1">
+        <v>20</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="4">
+        <v>139</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="1">
+        <v>20</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="4">
+        <v>140</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="1">
+        <v>20</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="4">
+        <v>141</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="1">
+        <v>20</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="4">
         <v>142</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C47" s="1">
         <v>30</v>
       </c>
-      <c r="D43" s="1">
-        <v>0</v>
-      </c>
-      <c r="F43" s="1" t="s">
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>57</v>
       </c>
     </row>
